--- a/src/Cópia de Engenharia de Software - Desafio [RENAN DA SILVA].xlsx
+++ b/src/Cópia de Engenharia de Software - Desafio [RENAN DA SILVA].xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
   <si>
     <t>Engenharia de Software</t>
   </si>
